--- a/output/VALUE/rebalance/rebalance_20250930.xlsx
+++ b/output/VALUE/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31.45%</t>
+          <t>31.35%</t>
         </is>
       </c>
     </row>
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02701561519996928</v>
+        <v>0.02690443293567989</v>
       </c>
       <c r="C2" t="n">
         <v>0.02846706558299338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001451450383024095</v>
+        <v>0.001562632647313482</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01866339113211962</v>
+        <v>0.01859522140642704</v>
       </c>
       <c r="C3" t="n">
         <v>0.02661173054072165</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007948339408602033</v>
+        <v>0.008016509134294605</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02612138535539825</v>
+        <v>0.02600526403242682</v>
       </c>
       <c r="C4" t="n">
         <v>0.02582315338429681</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0002982319711014349</v>
+        <v>-0.0001821106481300037</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0208340419029978</v>
+        <v>0.02074236362935495</v>
       </c>
       <c r="C5" t="n">
         <v>0.0251300101107241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004295968207726299</v>
+        <v>0.004387646481369151</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03091425337352911</v>
+        <v>0.03077525092539926</v>
       </c>
       <c r="C6" t="n">
         <v>0.02499345193331382</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005920801440215288</v>
+        <v>-0.005781798992085443</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01896881417273107</v>
+        <v>0.01888738317512562</v>
       </c>
       <c r="C7" t="n">
         <v>0.02470239535568765</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005733581182956585</v>
+        <v>0.005815012180562035</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02509684407430174</v>
+        <v>0.02500083872581179</v>
       </c>
       <c r="C8" t="n">
         <v>0.02462934162720095</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.000467502447100792</v>
+        <v>-0.0003714970986108436</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02227306658354029</v>
+        <v>0.02339239661691949</v>
       </c>
       <c r="C9" t="n">
         <v>0.02434072880395308</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002067662220412794</v>
+        <v>0.0009483321870335862</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02468239349487546</v>
+        <v>0.02458456926065018</v>
       </c>
       <c r="C10" t="n">
         <v>0.02282190849865045</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.001860484996225011</v>
+        <v>-0.001762660761999726</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01796585636886614</v>
+        <v>0.01789348416112844</v>
       </c>
       <c r="C11" t="n">
         <v>0.02240528931461581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004439432945749663</v>
+        <v>0.004511805153487369</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02089637240804486</v>
+        <v>0.0208089969943932</v>
       </c>
       <c r="C12" t="n">
         <v>0.02220902725194119</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001312654843896328</v>
+        <v>0.001400030257547983</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02111562743212746</v>
+        <v>0.02101873076634807</v>
       </c>
       <c r="C13" t="n">
         <v>0.02210541629911737</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009897888669899088</v>
+        <v>0.001086685532769298</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01969632037256989</v>
+        <v>0.0203906468897155</v>
       </c>
       <c r="C14" t="n">
         <v>0.02172905398704411</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002032733614474216</v>
+        <v>0.001338407097328603</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01811485350244305</v>
+        <v>0.0180387367138366</v>
       </c>
       <c r="C15" t="n">
         <v>0.02170522780489956</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003590374302456508</v>
+        <v>0.003666491091062957</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02383626959614</v>
+        <v>0.02373017859504361</v>
       </c>
       <c r="C16" t="n">
         <v>0.02164116020513271</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.002195109391007286</v>
+        <v>-0.002089018389910904</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01757416102503432</v>
+        <v>0.0174996777152708</v>
       </c>
       <c r="C17" t="n">
         <v>0.0211393942798369</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003565233254802583</v>
+        <v>0.003639716564566096</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01930088944352829</v>
+        <v>0.01921827468538678</v>
       </c>
       <c r="C18" t="n">
         <v>0.02082141873747466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001520529293946377</v>
+        <v>0.001603144052087887</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02357491726883205</v>
+        <v>0.02347119478455127</v>
       </c>
       <c r="C19" t="n">
         <v>0.02062875998006177</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002946157288770283</v>
+        <v>-0.002842434804489497</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01203205086154468</v>
+        <v>0.01198175634941265</v>
       </c>
       <c r="C20" t="n">
         <v>0.0204745076779314</v>
       </c>
       <c r="D20" t="n">
-        <v>0.008442456816386723</v>
+        <v>0.008492751328518752</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6663,13 +6663,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01720140193575773</v>
+        <v>0.01712232662550641</v>
       </c>
       <c r="C21" t="n">
         <v>0.01975449820610888</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002553096270351152</v>
+        <v>0.002632171580602471</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0192289435086361</v>
+        <v>0.01914540844153928</v>
       </c>
       <c r="C22" t="n">
         <v>0.01953319747751195</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0003042539688758485</v>
+        <v>0.0003877890359726618</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01659634233547728</v>
+        <v>0.01652328232331775</v>
       </c>
       <c r="C24" t="n">
         <v>0.01928790143133682</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002691559095859542</v>
+        <v>0.002764619108019069</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6768,13 +6768,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01755130535629094</v>
+        <v>0.01748071962306025</v>
       </c>
       <c r="C26" t="n">
         <v>0.01901860093458995</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001467295578299013</v>
+        <v>0.001537881311529703</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01943353114953506</v>
+        <v>0.01935007599271514</v>
       </c>
       <c r="C27" t="n">
         <v>0.01887501660648319</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0005585145430518634</v>
+        <v>-0.0004750593862319422</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6810,13 +6810,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02031178558286723</v>
+        <v>0.02022475825087135</v>
       </c>
       <c r="C28" t="n">
         <v>0.01875667447433546</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.001555111108531772</v>
+        <v>-0.001468083776535893</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0169549028488971</v>
+        <v>0.01688407149788781</v>
       </c>
       <c r="C30" t="n">
         <v>0.01833412651222039</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001379223663323284</v>
+        <v>0.001450055014332572</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6873,13 +6873,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01524551476134756</v>
+        <v>0.01517868008602699</v>
       </c>
       <c r="C31" t="n">
         <v>0.01833190940995598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003086394648608421</v>
+        <v>0.003153229323928993</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01973549132367926</v>
+        <v>0.01964731153473886</v>
       </c>
       <c r="C35" t="n">
         <v>0.01811900104663414</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.001616490277045118</v>
+        <v>-0.001528310488104714</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6978,13 +6978,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01435975383755672</v>
+        <v>0.01429990191834484</v>
       </c>
       <c r="C36" t="n">
         <v>0.0180259335492134</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003666179711656682</v>
+        <v>0.003726031630868563</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7041,13 +7041,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01666704217423498</v>
+        <v>0.01659031898225036</v>
       </c>
       <c r="C39" t="n">
         <v>0.01757744753310177</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00091040535886679</v>
+        <v>0.0009871285508514065</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01800673606874191</v>
+        <v>0.01792894704987553</v>
       </c>
       <c r="C40" t="n">
         <v>0.01738381734588709</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0006229187228548178</v>
+        <v>-0.0005451297039884423</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7104,13 +7104,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01889507135941881</v>
+        <v>0.01881585227782425</v>
       </c>
       <c r="C42" t="n">
         <v>0.01734431275942705</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.00155075859999176</v>
+        <v>-0.001471539518397208</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01844025133605601</v>
+        <v>0.01875960001053717</v>
       </c>
       <c r="C43" t="n">
         <v>0.01730981201825382</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.001130439317802188</v>
+        <v>-0.001449787992283347</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7188,13 +7188,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01638405085423544</v>
+        <v>0.01631338513646384</v>
       </c>
       <c r="C46" t="n">
         <v>0.01713702104883568</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0007529701946002373</v>
+        <v>0.000823635912371834</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7230,13 +7230,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01641875138644793</v>
+        <v>0.01634596745281353</v>
       </c>
       <c r="C48" t="n">
         <v>0.01693659568748709</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0005178443010391623</v>
+        <v>0.0005906282346735611</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7251,17 +7251,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01609642554532339</v>
+        <v>0.01693825132668421</v>
       </c>
       <c r="C49" t="n">
         <v>0.01689350404108303</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0007970784957596379</v>
+        <v>-4.474728560117588e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02776433063059474</v>
+        <v>0.02763712974425586</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02776433063059474</v>
+        <v>-0.02763712974425586</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02187735383176191</v>
+        <v>0.02177312187324998</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02187735383176191</v>
+        <v>-0.02177312187324998</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02097838255778123</v>
+        <v>0.02088578717620321</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02097838255778123</v>
+        <v>-0.02088578717620321</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01570791159081495</v>
+        <v>0.01666088643280772</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01570791159081495</v>
+        <v>-0.01666088643280772</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01767624380007208</v>
+        <v>0.01759733952143991</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01767624380007208</v>
+        <v>-0.01759733952143991</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.03471484430161513</v>
+        <v>0.03454858046443701</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.03471484430161513</v>
+        <v>-0.03454858046443701</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01286081618748111</v>
+        <v>0.01280573306495928</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01286081618748111</v>
+        <v>-0.01280573306495928</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02429272329847619</v>
+        <v>0.02418807283171431</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02429272329847619</v>
+        <v>-0.02418807283171431</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02104032457087669</v>
+        <v>0.02094819322679238</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02104032457087669</v>
+        <v>-0.02094819322679238</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01683043719647493</v>
+        <v>0.01675546006486505</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01683043719647493</v>
+        <v>-0.01675546006486505</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01371060306700543</v>
+        <v>0.01366000895224779</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01371060306700543</v>
+        <v>-0.01366000895224779</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02609421388949721</v>
+        <v>0.02597987251703245</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02609421388949721</v>
+        <v>-0.02597987251703245</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0202002500775084</v>
+        <v>0.02011012423906124</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0202002500775084</v>
+        <v>-0.02011012423906124</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02004714006694317</v>
+        <v>0.01996143299759414</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02004714006694317</v>
+        <v>-0.01996143299759414</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>

--- a/output/VALUE/rebalance/rebalance_20250930.xlsx
+++ b/output/VALUE/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31.35%</t>
+          <t>31.83%</t>
         </is>
       </c>
     </row>
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02690443293567989</v>
+        <v>0.02644048862436667</v>
       </c>
       <c r="C2" t="n">
         <v>0.02846706558299338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001562632647313482</v>
+        <v>0.002026576958626701</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01859522140642704</v>
+        <v>0.0169708276462905</v>
       </c>
       <c r="C3" t="n">
         <v>0.02661173054072165</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008016509134294605</v>
+        <v>0.00964090289443115</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02600526403242682</v>
+        <v>0.02687231495571424</v>
       </c>
       <c r="C4" t="n">
         <v>0.02582315338429681</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0001821106481300037</v>
+        <v>-0.001049161571417424</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02074236362935495</v>
+        <v>0.02143297257020114</v>
       </c>
       <c r="C5" t="n">
         <v>0.0251300101107241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004387646481369151</v>
+        <v>0.003697037540522953</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03077525092539926</v>
+        <v>0.03180296687834534</v>
       </c>
       <c r="C6" t="n">
         <v>0.02499345193331382</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005781798992085443</v>
+        <v>-0.006809514945031514</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01888738317512562</v>
+        <v>0.01951412384338578</v>
       </c>
       <c r="C7" t="n">
         <v>0.02470239535568765</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005815012180562035</v>
+        <v>0.005188271512301876</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,17 +6390,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02500083872581179</v>
+        <v>0.02379524312443319</v>
       </c>
       <c r="C8" t="n">
         <v>0.02462934162720095</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0003714970986108436</v>
+        <v>0.0008340985027677633</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02339239661691949</v>
+        <v>0.02165884988533162</v>
       </c>
       <c r="C9" t="n">
         <v>0.02434072880395308</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0009483321870335862</v>
+        <v>0.002681878918621462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02458456926065018</v>
+        <v>0.02373235046920043</v>
       </c>
       <c r="C10" t="n">
         <v>0.02282190849865045</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.001762660761999726</v>
+        <v>-0.0009104419705499751</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01789348416112844</v>
+        <v>0.0174330137463385</v>
       </c>
       <c r="C11" t="n">
         <v>0.02240528931461581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004511805153487369</v>
+        <v>0.004972275568277309</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0208089969943932</v>
+        <v>0.02069956358694419</v>
       </c>
       <c r="C12" t="n">
         <v>0.02220902725194119</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001400030257547983</v>
+        <v>0.001509463664996998</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02101873076634807</v>
+        <v>0.02146869299856436</v>
       </c>
       <c r="C13" t="n">
         <v>0.02210541629911737</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001086685532769298</v>
+        <v>0.0006367233005530083</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0203906468897155</v>
+        <v>0.01945332630996666</v>
       </c>
       <c r="C14" t="n">
         <v>0.02172905398704411</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001338407097328603</v>
+        <v>0.002275727677077444</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0180387367138366</v>
+        <v>0.01863561377282285</v>
       </c>
       <c r="C15" t="n">
         <v>0.02170522780489956</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003666491091062957</v>
+        <v>0.003069614032076711</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02373017859504361</v>
+        <v>0.02326827873029117</v>
       </c>
       <c r="C16" t="n">
         <v>0.02164116020513271</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.002089018389910904</v>
+        <v>-0.001627118525158459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0174996777152708</v>
+        <v>0.0166940746718568</v>
       </c>
       <c r="C17" t="n">
         <v>0.0211393942798369</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003639716564566096</v>
+        <v>0.0044453196079801</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01921827468538678</v>
+        <v>0.01985574551254517</v>
       </c>
       <c r="C18" t="n">
         <v>0.02082141873747466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001603144052087887</v>
+        <v>0.0009656732249294954</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02347119478455127</v>
+        <v>0.02425264178310663</v>
       </c>
       <c r="C19" t="n">
         <v>0.02062875998006177</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002842434804489497</v>
+        <v>-0.003623881803044859</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01198175634941265</v>
+        <v>0.01199590925466846</v>
       </c>
       <c r="C20" t="n">
         <v>0.0204745076779314</v>
       </c>
       <c r="D20" t="n">
-        <v>0.008492751328518752</v>
+        <v>0.008478598423262942</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6663,13 +6663,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01712232662550641</v>
+        <v>0.01769590257976064</v>
       </c>
       <c r="C21" t="n">
         <v>0.01975449820610888</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002632171580602471</v>
+        <v>0.002058595626348237</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6684,17 +6684,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01914540844153928</v>
+        <v>0.01978173129791214</v>
       </c>
       <c r="C22" t="n">
         <v>0.01953319747751195</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0003877890359726618</v>
+        <v>-0.0002485338204001944</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01652328232331775</v>
+        <v>0.01707344891107136</v>
       </c>
       <c r="C24" t="n">
         <v>0.01928790143133682</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002764619108019069</v>
+        <v>0.002214452520265461</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6768,13 +6768,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01748071962306025</v>
+        <v>0.016509155616213</v>
       </c>
       <c r="C26" t="n">
         <v>0.01901860093458995</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001537881311529703</v>
+        <v>0.002509445318376956</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01935007599271514</v>
+        <v>0.01999220036176472</v>
       </c>
       <c r="C27" t="n">
         <v>0.01887501660648319</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0004750593862319422</v>
+        <v>-0.001117183755281526</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6810,13 +6810,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02022475825087135</v>
+        <v>0.02028935407253222</v>
       </c>
       <c r="C28" t="n">
         <v>0.01875667447433546</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.001468083776535893</v>
+        <v>-0.001532679598196758</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01688407149788781</v>
+        <v>0.01646679611561454</v>
       </c>
       <c r="C30" t="n">
         <v>0.01833412651222039</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001450055014332572</v>
+        <v>0.001867330396605849</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6873,13 +6873,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01517868008602699</v>
+        <v>0.01507233442942958</v>
       </c>
       <c r="C31" t="n">
         <v>0.01833190940995598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003153229323928993</v>
+        <v>0.003259574980526403</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01964731153473886</v>
+        <v>0.02030284119467943</v>
       </c>
       <c r="C35" t="n">
         <v>0.01811900104663414</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.001528310488104714</v>
+        <v>-0.002183840148045284</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6978,13 +6978,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01429990191834484</v>
+        <v>0.01396310810827791</v>
       </c>
       <c r="C36" t="n">
         <v>0.0180259335492134</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003726031630868563</v>
+        <v>0.004062825440935494</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7041,13 +7041,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01659031898225036</v>
+        <v>0.01714618120717915</v>
       </c>
       <c r="C39" t="n">
         <v>0.01757744753310177</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0009871285508514065</v>
+        <v>0.0004312663259226183</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01792894704987553</v>
+        <v>0.01852438821219153</v>
       </c>
       <c r="C40" t="n">
         <v>0.01738381734588709</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0005451297039884423</v>
+        <v>-0.001140570866304445</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7104,13 +7104,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01881585227782425</v>
+        <v>0.01868618551617101</v>
       </c>
       <c r="C42" t="n">
         <v>0.01734431275942705</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001471539518397208</v>
+        <v>-0.00134187275674396</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01875960001053717</v>
+        <v>0.01855146206183387</v>
       </c>
       <c r="C43" t="n">
         <v>0.01730981201825382</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.001449787992283347</v>
+        <v>-0.00124165004358005</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7188,13 +7188,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01631338513646384</v>
+        <v>0.01595502735509536</v>
       </c>
       <c r="C46" t="n">
         <v>0.01713702104883568</v>
       </c>
       <c r="D46" t="n">
-        <v>0.000823635912371834</v>
+        <v>0.001181993693740318</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7230,13 +7230,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01634596745281353</v>
+        <v>0.01689075263173274</v>
       </c>
       <c r="C48" t="n">
         <v>0.01693659568748709</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0005906282346735611</v>
+        <v>4.584305575435627e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7251,17 +7251,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01693825132668421</v>
+        <v>0.01561765166074936</v>
       </c>
       <c r="C49" t="n">
         <v>0.01689350404108303</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.474728560117588e-05</v>
+        <v>0.001275852380333667</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02763712974425586</v>
+        <v>0.02736461286097408</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02763712974425586</v>
+        <v>-0.02736461286097408</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02177312187324998</v>
+        <v>0.02225055767070225</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02177312187324998</v>
+        <v>-0.02225055767070225</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02088578717620321</v>
+        <v>0.02158146268600018</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02088578717620321</v>
+        <v>-0.02158146268600018</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01666088643280772</v>
+        <v>0.01510109371044178</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01666088643280772</v>
+        <v>-0.01510109371044178</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01759733952143991</v>
+        <v>0.01818439505282075</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01759733952143991</v>
+        <v>-0.01818439505282075</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.03454858046443701</v>
+        <v>0.03571281603250792</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.03454858046443701</v>
+        <v>-0.03571281603250792</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01280573306495928</v>
+        <v>0.01257447541265759</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01280573306495928</v>
+        <v>-0.01257447541265759</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02418807283171431</v>
+        <v>0.02499108308104191</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02418807283171431</v>
+        <v>-0.02499108308104191</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02094819322679238</v>
+        <v>0.02164518538915106</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02094819322679238</v>
+        <v>-0.02164518538915106</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01675546006486505</v>
+        <v>0.01661044120511119</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01675546006486505</v>
+        <v>-0.01661044120511119</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01366000895224779</v>
+        <v>0.0130783492029944</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01366000895224779</v>
+        <v>-0.0130783492029944</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02597987251703245</v>
+        <v>0.02602404011908934</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02597987251703245</v>
+        <v>-0.02602404011908934</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02011012423906124</v>
+        <v>0.02078096069107665</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02011012423906124</v>
+        <v>-0.02078096069107665</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01996143299759414</v>
+        <v>0.01960500718884857</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01996143299759414</v>
+        <v>-0.01960500718884857</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
